--- a/Infraestructura/LISTADOS INFRAESTRUCTURAS/LISTADO HI PROPIOS FEB 2019.xlsx
+++ b/Infraestructura/LISTADOS INFRAESTRUCTURAS/LISTADO HI PROPIOS FEB 2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmadrid/Documents/GitHub/Dotaciones2019/Infraestructura/LISTADOS INFRAESTRUCTURAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE2E933C-D455-AD4A-B26E-6A26E42FADA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DA207F-E4F4-9243-8936-B78B1C2F795F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="12820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
